--- a/LF/PreTAS/Kenya/ke_lf_pretas_1_site_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_1_site_202203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
   <si>
     <t>type</t>
   </si>
@@ -129,7 +129,10 @@
     <t>c_cluster_id</t>
   </si>
   <si>
-    <t>Enter Site ID</t>
+    <t>Village ID</t>
+  </si>
+  <si>
+    <t>Select village ID</t>
   </si>
   <si>
     <t>. &gt; 99 and . &lt; 1000</t>
@@ -219,19 +222,19 @@
     <t>enumarator</t>
   </si>
   <si>
-    <t>Enumerator1</t>
-  </si>
-  <si>
-    <t>Enumerator2</t>
-  </si>
-  <si>
-    <t>Enumerator3</t>
-  </si>
-  <si>
-    <t>Enumerator4</t>
-  </si>
-  <si>
-    <t>Enumerator5</t>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
   <si>
     <t>Kilifi</t>
@@ -369,11 +372,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,10 +401,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,6 +424,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -427,9 +455,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,14 +492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -459,29 +501,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,9 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,22 +530,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,31 +561,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,43 +693,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,97 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,10 +770,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -790,50 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -848,145 +849,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,12 +1031,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1021,8 +1046,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1065,11 +1093,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1341,11 +1371,11 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1406,7 +1436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:13">
+    <row r="2" s="6" customFormat="1" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1541,13 +1571,15 @@
       <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1557,18 +1589,18 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1585,16 +1617,16 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="28.5" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="6"/>
       <c r="J9" s="5" t="s">
@@ -1603,39 +1635,39 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="10"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="10"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:8">
       <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="10"/>
       <c r="H12" s="6"/>
@@ -1653,9 +1685,9 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="$A51:$XFD51"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1667,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1676,35 +1708,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
@@ -1714,24 +1746,24 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
@@ -1741,57 +1773,57 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>67</v>
+      <c r="B8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:3">
@@ -1801,35 +1833,35 @@
     </row>
     <row r="14" s="4" customFormat="1" spans="1:3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:3">
@@ -1839,226 +1871,226 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2068,231 +2100,231 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>101</v>
@@ -2301,12 +2333,12 @@
         <v>101</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>102</v>
@@ -2315,12 +2347,12 @@
         <v>102</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>103</v>
@@ -2329,12 +2361,12 @@
         <v>103</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>104</v>
@@ -2343,12 +2375,12 @@
         <v>104</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56">
         <v>105</v>
@@ -2357,12 +2389,12 @@
         <v>105</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57">
         <v>106</v>
@@ -2371,12 +2403,12 @@
         <v>106</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>107</v>
@@ -2385,12 +2417,12 @@
         <v>107</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59">
         <v>108</v>
@@ -2399,12 +2431,12 @@
         <v>108</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60">
         <v>109</v>
@@ -2413,12 +2445,12 @@
         <v>109</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61">
         <v>110</v>
@@ -2427,12 +2459,12 @@
         <v>110</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62">
         <v>111</v>
@@ -2441,12 +2473,12 @@
         <v>111</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63">
         <v>112</v>
@@ -2455,12 +2487,12 @@
         <v>112</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>113</v>
@@ -2469,12 +2501,12 @@
         <v>113</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65">
         <v>114</v>
@@ -2483,12 +2515,12 @@
         <v>114</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B66">
         <v>115</v>
@@ -2497,12 +2529,12 @@
         <v>115</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67">
         <v>116</v>
@@ -2511,7 +2543,7 @@
         <v>116</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2542,27 +2574,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_1_site_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_1_site_202203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1684,10 +1684,10 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C12"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2561,7 +2561,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_1_site_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_1_site_202203.xlsx
@@ -70,7 +70,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>select_one enumarator</t>
+    <t>string</t>
   </si>
   <si>
     <t>c_enumerator</t>
@@ -79,7 +79,7 @@
     <t>Enumerator</t>
   </si>
   <si>
-    <t>Select your name/number</t>
+    <t>Write first and last name</t>
   </si>
   <si>
     <t>select_one county</t>
@@ -340,10 +340,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>1. Kenya - Pre TAS LF Site Form V2</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_1_site_202203_v2</t>
+    <t>1. Kenya - Pre TAS LF Site Form V3</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_1_site_202203_v3</t>
   </si>
   <si>
     <t>English</t>
@@ -363,9 +363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -431,10 +431,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,6 +485,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -461,9 +500,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,43 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,9 +546,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,19 +624,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,13 +684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,43 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,13 +732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,49 +756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,6 +806,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -830,11 +845,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,21 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -876,21 +882,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,145 +894,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1421,11 +1421,11 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1737,7 +1737,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -2537,13 +2537,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="46.1259259259259" customWidth="1"/>
-    <col min="2" max="2" width="24.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="15.8740740740741" customWidth="1"/>
   </cols>
   <sheetData>
